--- a/states/Romania.xlsx
+++ b/states/Romania.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15:55 16-04-2022</t>
+          <t>16:39 16-04-2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>

--- a/states/Romania.xlsx
+++ b/states/Romania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,388 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16:48 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16:57 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17:00 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17:03 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17:06 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:10 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6670000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26900</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1405369</v>
+      </c>
+      <c r="I8" t="n">
+        <v>279.76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>116000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>78706</v>
+      </c>
+      <c r="O8" t="n">
+        <v>301.28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2640000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1109221</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15158.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2960000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>152743</v>
+      </c>
+      <c r="U8" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>88044</v>
+      </c>
+      <c r="X8" t="n">
+        <v>64.56</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6140000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2087043</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>833.9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2220000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>678339</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5541.4</v>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbia_1130000.0_-290812.0_1172.84;</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bulgaria_nan_72703.0_492.27; Ungheria_nan_354177.0_1110.97; Mol_nan_186760.0_1272.37; Ucraina_650000.0_456228.0_1810.37;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/states/Romania.xlsx
+++ b/states/Romania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="B2" t="n">
+        <v>242</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>6670000</v>
@@ -787,6 +781,138 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6610000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26600</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1404625</v>
+      </c>
+      <c r="I3" t="n">
+        <v>281.96</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>116000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>78659</v>
+      </c>
+      <c r="O3" t="n">
+        <v>300.58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2640000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1109158</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15148.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2960000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>152691</v>
+      </c>
+      <c r="U3" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>87913</v>
+      </c>
+      <c r="X3" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6140000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2086777</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>835.24</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2220000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>678186</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5538.12</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbia_1130000.0_-292162.0_1175.72;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bulgaria_nan_15203.0_101.08; Ungheria_nan_348347.0_1197.0; Mol_nan_187063.0_1271.48; Ucraina_650000.0_462039.0_1832.74;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
